--- a/Lab 4/BlackBodyRadiation/5VOLTS_117°_2DAMEDICION.xlsx
+++ b/Lab 4/BlackBodyRadiation/5VOLTS_117°_2DAMEDICION.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="372">
-  <si>
-    <t>Serie N.º 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="371">
   <si>
     <t>Intensidad relativa (%)</t>
   </si>
   <si>
-    <t>ángulo (rad)</t>
+    <t>Angulo (grad)</t>
   </si>
   <si>
     <t>59,82</t>
@@ -1489,7 +1486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1504,23 +1501,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1528,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1536,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1544,103 +1541,103 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1648,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1656,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -1664,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1672,15 +1669,15 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -1688,39 +1685,39 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -1728,23 +1725,23 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -1752,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -1765,7 +1762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
@@ -1773,15 +1770,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
@@ -1789,7 +1786,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>24</v>
@@ -1813,15 +1810,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>28</v>
@@ -1837,7 +1834,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>29</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>30</v>
@@ -1853,7 +1850,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -1861,15 +1858,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -1877,7 +1874,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1885,7 +1882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>36</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>37</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -1909,15 +1906,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>41</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>42</v>
@@ -1933,39 +1930,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>49</v>
@@ -1973,10 +1970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -1984,36 +1981,36 @@
         <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>55</v>
@@ -2021,15 +2018,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>58</v>
@@ -2037,23 +2034,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>63</v>
@@ -2061,63 +2058,63 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>74</v>
@@ -2125,15 +2122,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>77</v>
@@ -2141,7 +2138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>78</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>79</v>
@@ -2157,15 +2154,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>82</v>
@@ -2173,7 +2170,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>83</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>84</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>85</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -2205,7 +2202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>87</v>
@@ -2213,10 +2210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -2224,28 +2221,28 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>95</v>
@@ -2253,7 +2250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>98</v>
@@ -2277,7 +2274,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>99</v>
@@ -2285,23 +2282,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>104</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>105</v>
@@ -2317,23 +2314,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>110</v>
@@ -2341,39 +2338,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>119</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>120</v>
@@ -2389,23 +2386,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>125</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>126</v>
@@ -2421,87 +2418,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>145</v>
@@ -2509,90 +2506,90 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
@@ -2600,500 +2597,500 @@
         <v>167</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>291</v>
@@ -3101,215 +3098,215 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
-        <v>343</v>
+        <v>175</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>344</v>
@@ -3317,7 +3314,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>345</v>
@@ -3325,7 +3322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>346</v>
@@ -3333,39 +3330,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1" t="s">
-        <v>354</v>
+        <v>141</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>355</v>
@@ -3373,7 +3370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>356</v>
@@ -3381,10 +3378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
@@ -3392,23 +3389,23 @@
         <v>358</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1" t="s">
-        <v>136</v>
+        <v>359</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
@@ -3416,39 +3413,39 @@
         <v>360</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
@@ -3456,63 +3453,63 @@
         <v>363</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1" t="s">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
@@ -3520,7 +3517,7 @@
         <v>365</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
@@ -3528,87 +3525,87 @@
         <v>366</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1" t="s">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1" t="s">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
@@ -3616,111 +3613,103 @@
         <v>367</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1" t="s">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="1" t="s">
-        <v>368</v>
+        <v>143</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="1" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
